--- a/biology/Biochimie/Acide_cérotique/Acide_cérotique.xlsx
+++ b/biology/Biochimie/Acide_cérotique/Acide_cérotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_c%C3%A9rotique</t>
+          <t>Acide_cérotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide cérotique ou acide hexacosanoïque (nom systématique) est un acide gras saturé à très longue chaîne (C26:0) de formule chimique CH3–(CH2)24–COOH. On le trouve essentiellement dans la cire d'abeille (Cera, cire en latin).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_c%C3%A9rotique</t>
+          <t>Acide_cérotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide cérotique est présent avec l'acide mélissique sous la forme de « cérine » dans la cire d'abeille dont il représente 14 à 15 %[3]. Il y est présent aux côtés de nombreux esters d'acides à longue chaîne et d'alcools libres. Il est également présent dans la cire de carnauba, la cire de Montan et dans le suint.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide cérotique est présent avec l'acide mélissique sous la forme de « cérine » dans la cire d'abeille dont il représente 14 à 15 %. Il y est présent aux côtés de nombreux esters d'acides à longue chaîne et d'alcools libres. Il est également présent dans la cire de carnauba, la cire de Montan et dans le suint.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_c%C3%A9rotique</t>
+          <t>Acide_cérotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide cérotique  est une poudre cristalline blanche à beige avec un point de fusion de 87 à 89 °C. Il est pratiquement insoluble dans l'eau.
 </t>
